--- a/ADAPT/0 Utilities/GC Profiler/Analysis/GC Profiler - eMote v. 2014.05.23, 19-51.xlsx
+++ b/ADAPT/0 Utilities/GC Profiler/Analysis/GC Profiler - eMote v. 2014.05.23, 19-51.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="6156" tabRatio="659" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="6156" tabRatio="659" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="A AutoGC" sheetId="14" r:id="rId1"/>
-    <sheet name="N AutoGC" sheetId="24" r:id="rId2"/>
-    <sheet name="AutoGC Inject" sheetId="21" r:id="rId3"/>
-    <sheet name="MemAlloc Summary" sheetId="20" r:id="rId4"/>
-    <sheet name="MemAlloc Fix 128(1)" sheetId="16" r:id="rId5"/>
-    <sheet name="MemAlloc Fix 128(2)" sheetId="18" r:id="rId6"/>
-    <sheet name="MemAlloc Fix 256" sheetId="22" r:id="rId7"/>
-    <sheet name="MemAlloc Fix 512" sheetId="23" r:id="rId8"/>
-    <sheet name="MemAlloc Fix Force" sheetId="19" r:id="rId9"/>
-    <sheet name="MemAlloc Var 1" sheetId="17" r:id="rId10"/>
+    <sheet name="ReadMe" sheetId="25" r:id="rId1"/>
+    <sheet name="A AutoGC" sheetId="14" r:id="rId2"/>
+    <sheet name="N AutoGC" sheetId="24" r:id="rId3"/>
+    <sheet name="A AutoGC Inject" sheetId="21" r:id="rId4"/>
+    <sheet name="MemAlloc Summary" sheetId="20" r:id="rId5"/>
+    <sheet name="MemAlloc Fix 128(1)" sheetId="16" r:id="rId6"/>
+    <sheet name="MemAlloc Fix 128(2)" sheetId="18" r:id="rId7"/>
+    <sheet name="MemAlloc Fix 256" sheetId="22" r:id="rId8"/>
+    <sheet name="MemAlloc Fix 512" sheetId="23" r:id="rId9"/>
+    <sheet name="MemAlloc Fix Force" sheetId="19" r:id="rId10"/>
+    <sheet name="MemAlloc Var 1" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="254">
   <si>
     <t>ADAPT</t>
   </si>
@@ -777,6 +778,24 @@
   </si>
   <si>
     <t>.NOW</t>
+  </si>
+  <si>
+    <t>Est Objects</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Sqrt</t>
+  </si>
+  <si>
+    <t>Spreadsheet Readme</t>
+  </si>
+  <si>
+    <t>ADAPT tests use unoptimized build dated 2014.05.23, 19:51</t>
+  </si>
+  <si>
+    <t>.NOW tests use version 11</t>
   </si>
 </sst>
 </file>
@@ -880,7 +899,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -902,19 +921,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -923,6 +933,22 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -943,6 +969,814 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> GC Time (ms) vs. Sqrt (Est Num Objs) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A AutoGC'!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GC Time (ms) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A AutoGC'!$I$8:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.509667991878089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.254833995939045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.627416997969522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.313708498984761</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6568542494923806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8284271247461903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4142135623730951</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A AutoGC'!$J$8:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="2">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="340109792"/>
+        <c:axId val="340107440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="340109792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340107440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="340107440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340109792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> GC Time (ms) vs Est Num Objs </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A AutoGC'!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GC Time (ms) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A AutoGC'!$F$8:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A AutoGC'!$G$8:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="2">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="340108616"/>
+        <c:axId val="340108224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="340108616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340108224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="340108224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340108616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1049,7 +1883,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AutoGC Inject'!$D$7:$D$463</c:f>
+              <c:f>'A AutoGC Inject'!$D$7:$D$463</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1109,7 +1943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AutoGC Inject'!$F$7:$F$463</c:f>
+              <c:f>'A AutoGC Inject'!$F$7:$F$463</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1178,11 +2012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="365014176"/>
-        <c:axId val="365013000"/>
+        <c:axId val="340104304"/>
+        <c:axId val="340105480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365014176"/>
+        <c:axId val="340104304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,7 +2115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365013000"/>
+        <c:crossAx val="340105480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1289,7 +2123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365013000"/>
+        <c:axId val="340105480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +2230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365014176"/>
+        <c:crossAx val="340104304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,7 +2319,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2005,6 +3951,71 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -2299,22 +4310,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2324,328 +4358,335 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
-      <c r="I4" s="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <f>FIND(" ",A10)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="10">
-        <f>2^19</f>
-        <v>524288</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="D10" t="str">
+        <f>MID(A10,C10,LEN(A10)-C10+1)</f>
+        <v xml:space="preserve"> 536.93055310125362208</v>
+      </c>
+      <c r="E10">
+        <f>VALUE(D10)</f>
+        <v>536.93055310125305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C14" si="0">FIND(" ",A11)</f>
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D14" si="1">MID(A11,C11,LEN(A11)-C11+1)</f>
+        <v xml:space="preserve"> 5.41368752474939896e-1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E14" si="2">VALUE(D11)</f>
+        <v>0.54136875247493899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 532</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>0</v>
-      </c>
-      <c r="B8" s="7">
-        <f t="shared" ref="B8:B24" si="0">2^A8</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>248</v>
-      </c>
-      <c r="D8" s="8">
-        <v>964560</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 538</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="7">
-        <v>248</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <f>A9+1</f>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 5659</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>5659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C22" si="3">FIND(" ",A18)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18:D22" si="4">MID(A18,C18,LEN(A18)-C18+1)</f>
+        <v xml:space="preserve"> 650.68425744339549512</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E22" si="5">VALUE(D18)</f>
+        <v>650.68425744339504</v>
+      </c>
+      <c r="G18">
+        <f>E18-E10</f>
+        <v>113.75370434214199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> 1.39502120262055016</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>1.39502120262055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> 647</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> 675</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B10" s="7">
-        <f t="shared" si="0"/>
+      <c r="D22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> 5609</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C30" si="6">FIND(" ",A26)</f>
+        <v>5</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ref="D26:D30" si="7">MID(A26,C26,LEN(A26)-C26+1)</f>
+        <v xml:space="preserve"> 650.09968197879697982</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E30" si="8">VALUE(D26)</f>
+        <v>650.09968197879596</v>
+      </c>
+      <c r="G26">
+        <f>E26-E10</f>
+        <v>113.1691288775429</v>
+      </c>
+      <c r="H26" s="11">
+        <f>G26-G18</f>
+        <v>-0.58457546459908372</v>
+      </c>
+      <c r="I26" s="12">
+        <f>H26/G18</f>
+        <v>-5.1389576100381801E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> 1.30657528485920248</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>1.3065752848592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C10" s="7">
-        <v>248</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <f t="shared" ref="A11:A23" si="1">A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="7">
-        <v>167</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <f t="shared" si="1"/>
+      <c r="D28" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> 646</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C12" s="7">
-        <v>167</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B13" s="7">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C13" s="7">
-        <v>103</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C14" s="7">
-        <v>75</v>
-      </c>
-      <c r="D14" s="8">
-        <v>964464</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14" s="7">
-        <f>2^F14</f>
-        <v>64</v>
-      </c>
-      <c r="H14">
-        <v>38</v>
-      </c>
-      <c r="I14" s="1">
-        <v>439884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="7">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="C15" s="7">
-        <v>44</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="7">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="C16" s="7">
-        <v>27</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="7">
-        <f t="shared" si="0"/>
-        <v>512</v>
-      </c>
-      <c r="C17" s="7">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="7">
-        <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="7">
-        <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8">
-        <v>962220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="7">
-        <f t="shared" si="0"/>
-        <v>4096</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8</v>
-      </c>
-      <c r="D20" s="8">
-        <v>960180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="7">
-        <f t="shared" si="0"/>
-        <v>8192</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7</v>
-      </c>
-      <c r="D21" s="8">
-        <v>956076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="7">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-      <c r="C22" s="7">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8">
-        <v>947892</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="7">
-        <f t="shared" si="0"/>
-        <v>32768</v>
-      </c>
-      <c r="C23" s="7">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8">
-        <v>931500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <f t="shared" ref="A24" si="2">A23+1</f>
-        <v>16</v>
-      </c>
-      <c r="B24" s="7">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-      <c r="C24" s="7">
-        <v>6</v>
-      </c>
-      <c r="D24" s="8">
-        <v>898980</v>
+      <c r="D29" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> 674</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> 5660</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>5660</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -2693,10 +4734,10 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2989,10 +5030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3001,6 +5042,658 @@
     <col min="2" max="2" width="8.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="10">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>C7</f>
+        <v>GC Time (ms)</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f>C7</f>
+        <v>GC Time (ms)</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" ref="B8:B24" si="0">2^A8</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>248</v>
+      </c>
+      <c r="D8" s="8">
+        <v>964560</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="23"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>248</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>248</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F22" si="1">F11*2</f>
+        <v>16384</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" ref="G10:G24" si="2">C10</f>
+        <v>248</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="8">
+        <f t="shared" ref="I10:I24" si="3">SQRT(F10)</f>
+        <v>128</v>
+      </c>
+      <c r="J10" s="23">
+        <f t="shared" ref="J10:J24" si="4">C10</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <f t="shared" ref="A11:A23" si="5">A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>167</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="8">
+        <f t="shared" si="3"/>
+        <v>90.509667991878089</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C12" s="7">
+        <v>167</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="8">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C13" s="7">
+        <v>103</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="8">
+        <f t="shared" si="3"/>
+        <v>45.254833995939045</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C14" s="7">
+        <v>75</v>
+      </c>
+      <c r="D14" s="8">
+        <v>964464</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="8">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14" s="7">
+        <f>2^L14</f>
+        <v>64</v>
+      </c>
+      <c r="N14">
+        <v>38</v>
+      </c>
+      <c r="O14" s="1">
+        <v>439884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C15" s="7">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="8">
+        <f t="shared" si="3"/>
+        <v>22.627416997969522</v>
+      </c>
+      <c r="J15" s="23">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C16" s="7">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="8">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="C17" s="7">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="8">
+        <f t="shared" si="3"/>
+        <v>11.313708498984761</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8">
+        <v>962220</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="8">
+        <f t="shared" si="3"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="7">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8">
+        <v>960180</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G20" s="23">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="23">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8">
+        <v>956076</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G21" s="23">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="8">
+        <f t="shared" si="3"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="J21" s="23">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="7">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8">
+        <v>947892</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G22" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="23">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="7">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8">
+        <v>931500</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <f>F24*2</f>
+        <v>2</v>
+      </c>
+      <c r="G23" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J23" s="23">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <f t="shared" ref="A24" si="6">A23+1</f>
+        <v>16</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8">
+        <v>898980</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="23">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
@@ -3040,6 +5733,9 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -3053,8 +5749,16 @@
         <f t="shared" ref="B10:B26" si="0">2^A10</f>
         <v>1</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>35412</v>
+      </c>
+      <c r="E10" s="21">
+        <f>AVERAGE($D$9:$D$27)/B10</f>
+        <v>34612.615384615383</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3065,8 +5769,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8">
+        <v>35148</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" ref="E11:E22" si="1">AVERAGE($D$9:$D$27)/B11</f>
+        <v>17306.307692307691</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -3077,133 +5789,221 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>35172</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" si="1"/>
+        <v>8653.1538461538457</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <f t="shared" ref="A13:A26" si="1">A12+1</f>
+        <f t="shared" ref="A13:A26" si="2">A12+1</f>
         <v>3</v>
       </c>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>35160</v>
+      </c>
+      <c r="E13" s="22">
+        <f t="shared" si="1"/>
+        <v>4326.5769230769229</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>35136</v>
+      </c>
+      <c r="E14" s="22">
+        <f t="shared" si="1"/>
+        <v>2163.2884615384614</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>35112</v>
+      </c>
+      <c r="E15" s="22">
+        <f t="shared" si="1"/>
+        <v>1081.6442307692307</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
+        <v>35376</v>
+      </c>
+      <c r="E16" s="22">
+        <f t="shared" si="1"/>
+        <v>540.82211538461536</v>
+      </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>35016</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" si="1"/>
+        <v>270.41105769230768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>34920</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="1"/>
+        <v>135.20552884615384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>34896</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="1"/>
+        <v>67.60276442307692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>34416</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="1"/>
+        <v>33.80138221153846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>33120</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="1"/>
+        <v>16.90069110576923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>31080</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="1"/>
+        <v>8.450345552884615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B23" s="7">
@@ -3213,9 +6013,9 @@
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B24" s="7">
@@ -3225,9 +6025,9 @@
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B25" s="7">
@@ -3237,9 +6037,9 @@
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B26" s="7">
@@ -3255,11 +6055,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F488"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3295,13 +6095,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>207</v>
       </c>
     </row>
@@ -11473,12 +14273,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11499,12 +14299,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -11524,67 +14324,67 @@
       <c r="A9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <f>'MemAlloc Var 1'!G18</f>
         <v>106.77132925346604</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <f>'MemAlloc Fix 128(2)'!G18</f>
         <v>114.05409257744407</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <f>'MemAlloc Fix 256'!G18</f>
         <v>111.62954246784903</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <f>'MemAlloc Fix 512'!G18</f>
         <v>113.53562109064495</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <f>'MemAlloc Var 1'!G26</f>
         <v>152.95770578846594</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <f>'MemAlloc Fix 128(2)'!G26</f>
         <v>181.9837074156801</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <f>'MemAlloc Fix 256'!G26</f>
         <v>178.31229505201105</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <f>'MemAlloc Fix 512'!G26</f>
         <v>179.56922404328697</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <f>B10-B9</f>
         <v>46.186376534999908</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <f>C10-C9</f>
         <v>67.929614838236034</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <f>D10-D9</f>
         <v>66.682752584162017</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <f>E10-E9</f>
         <v>66.033602952642013</v>
       </c>
@@ -11593,19 +14393,19 @@
       <c r="A12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <f>B11/B9</f>
         <v>0.43257283446717598</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <f>C11/C9</f>
         <v>0.59559120854967151</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <f>D11/D9</f>
         <v>0.59735757318335014</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <f>E11/E9</f>
         <v>0.58161132443113939</v>
       </c>
@@ -11616,87 +14416,108 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="16">
         <f>'MemAlloc Var 1'!E10</f>
         <v>466.55660214310302</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <f>'MemAlloc Fix 128(2)'!E10</f>
         <v>536.89017556304395</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="16">
         <f>'MemAlloc Fix 256'!E10</f>
         <v>470.16648902821299</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <f>'MemAlloc Fix 512'!E10</f>
         <v>469.70325752919501</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="16">
         <f>'MemAlloc Var 1'!E11</f>
         <v>0.47065537030615801</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <f>'MemAlloc Fix 128(2)'!E11</f>
         <v>0.52177414776588804</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="16">
         <f>'MemAlloc Fix 256'!E11</f>
         <v>0.97106583350112596</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <f>'MemAlloc Fix 512'!E11</f>
         <v>0.86553268149952001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>245</v>
       </c>
       <c r="B17">
         <f>'MemAlloc Var 1'!E12</f>
         <v>464</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="19">
         <f>'MemAlloc Fix 128(2)'!E12</f>
         <v>534</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <f>'MemAlloc Fix 256'!E12</f>
         <v>467</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="20">
         <f>'MemAlloc Fix 512'!E12</f>
         <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>246</v>
       </c>
       <c r="B18">
         <f>'MemAlloc Var 1'!E13</f>
         <v>468</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <f>'MemAlloc Fix 128(2)'!E13</f>
         <v>538</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="20">
         <f>'MemAlloc Fix 256'!E13</f>
         <v>473</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="20">
         <f>'MemAlloc Fix 512'!E13</f>
         <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19">
+        <f>B18-B17</f>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f>C18-C17</f>
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f>D18-D17</f>
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <f>E18-E17</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -11708,7 +14529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -11756,10 +14577,10 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12050,7 +14871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -12098,10 +14919,10 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12392,7 +15213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -12440,10 +15261,10 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12734,7 +15555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -12782,10 +15603,10 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -13074,352 +15895,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10">
-        <f>FIND(" ",A10)</f>
-        <v>5</v>
-      </c>
-      <c r="D10" t="str">
-        <f>MID(A10,C10,LEN(A10)-C10+1)</f>
-        <v xml:space="preserve"> 536.93055310125362208</v>
-      </c>
-      <c r="E10">
-        <f>VALUE(D10)</f>
-        <v>536.93055310125305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:C14" si="0">FIND(" ",A11)</f>
-        <v>6</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:D14" si="1">MID(A11,C11,LEN(A11)-C11+1)</f>
-        <v xml:space="preserve"> 5.41368752474939896e-1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ref="E11:E14" si="2">VALUE(D11)</f>
-        <v>0.54136875247493899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> 532</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>532</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> 538</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> 5659</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>5659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18:C22" si="3">FIND(" ",A18)</f>
-        <v>5</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" ref="D18:D22" si="4">MID(A18,C18,LEN(A18)-C18+1)</f>
-        <v xml:space="preserve"> 650.68425744339549512</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ref="E18:E22" si="5">VALUE(D18)</f>
-        <v>650.68425744339504</v>
-      </c>
-      <c r="G18">
-        <f>E18-E10</f>
-        <v>113.75370434214199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> 1.39502120262055016</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="5"/>
-        <v>1.39502120262055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> 647</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
-        <v>647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> 675</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="5"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> 5609</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="5"/>
-        <v>5609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:C30" si="6">FIND(" ",A26)</f>
-        <v>5</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" ref="D26:D30" si="7">MID(A26,C26,LEN(A26)-C26+1)</f>
-        <v xml:space="preserve"> 650.09968197879697982</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26:E30" si="8">VALUE(D26)</f>
-        <v>650.09968197879596</v>
-      </c>
-      <c r="G26">
-        <f>E26-E10</f>
-        <v>113.1691288775429</v>
-      </c>
-      <c r="H26" s="11">
-        <f>G26-G18</f>
-        <v>-0.58457546459908372</v>
-      </c>
-      <c r="I26" s="12">
-        <f>H26/G18</f>
-        <v>-5.1389576100381801E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> 1.30657528485920248</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="8"/>
-        <v>1.3065752848592</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> 646</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="8"/>
-        <v>646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> 674</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="8"/>
-        <v>674</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> 5660</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="8"/>
-        <v>5660</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H8:I8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>